--- a/ig/nr-update/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:30:52+00:00</t>
+    <t>2024-02-07T13:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:43:56+00:00</t>
+    <t>2024-02-07T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
